--- a/data/chemical/化工中观数据库.xlsx
+++ b/data/chemical/化工中观数据库.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="68">
   <si>
     <t>名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -269,6 +269,22 @@
   </si>
   <si>
     <t>S0073293</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0000011</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>M0000271</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S0260036</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>日</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -621,7 +637,7 @@
   <dimension ref="A1:C33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -858,6 +874,9 @@
       <c r="A22" t="s">
         <v>42</v>
       </c>
+      <c r="B22" t="s">
+        <v>64</v>
+      </c>
       <c r="C22" t="s">
         <v>5</v>
       </c>
@@ -866,6 +885,9 @@
       <c r="A23" t="s">
         <v>55</v>
       </c>
+      <c r="B23" t="s">
+        <v>65</v>
+      </c>
       <c r="C23" t="s">
         <v>20</v>
       </c>
@@ -944,6 +966,12 @@
     <row r="31" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A31" t="s">
         <v>56</v>
+      </c>
+      <c r="B31" t="s">
+        <v>66</v>
+      </c>
+      <c r="C31" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.15">
